--- a/DMS/Templates/Report_Store_State_Change.xlsx
+++ b/DMS/Templates/Report_Store_State_Change.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>STT</t>
   </si>
@@ -86,25 +86,31 @@
     <t>{{ReportStoreStateChange.CreatedAt}}</t>
   </si>
   <si>
-    <t>{{ReportStoreStateChange.StoreCode}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreStateChange.StoreName}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreStateChange.StoreAddress}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreStateChange.PhoneNumber}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreStateChange.PreviousStoreStatusName}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreStateChange.StoreStatusName}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreStateChange.PreviousCreatedAt}}</t>
+    <t>{{Total}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreStateChange.Details.StoreCode}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreStateChange.Total}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreStateChange.Details.StoreName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreStateChange.Details.StoreAddress}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreStateChange.Details.PhoneNumber}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreStateChange.Details.PreviousStoreStatusName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreStateChange.Details.StoreStatusName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreStateChange.Details.PreviousCreatedAt}}</t>
   </si>
 </sst>
 </file>
@@ -264,6 +270,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -284,10 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,7 +578,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,36 +596,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -629,13 +635,13 @@
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -669,19 +675,21 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -691,39 +699,41 @@
         <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/DMS/Templates/Report_Store_State_Change.xlsx
+++ b/DMS/Templates/Report_Store_State_Change.xlsx
@@ -104,13 +104,13 @@
     <t>{{ReportStoreStateChange.Details.PhoneNumber}}</t>
   </si>
   <si>
-    <t>{{ReportStoreStateChange.Details.PreviousStoreStatusName}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreStateChange.Details.StoreStatusName}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreStateChange.Details.PreviousCreatedAt}}</t>
+    <t>{{ReportStoreStateChange.Details.StringPreviousCreatedAt}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreStateChange.Details.StoreStatus}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreStateChange.Details.PreviousStoreStatus}}</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,13 +711,13 @@
         <v>25</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">

--- a/DMS/Templates/Report_Store_State_Change.xlsx
+++ b/DMS/Templates/Report_Store_State_Change.xlsx
@@ -80,12 +80,6 @@
     <t>{{ReportStoreStateChange.OrganizationName}}</t>
   </si>
   <si>
-    <t>{{ReportStoreStateChange.STT}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreStateChange.CreatedAt}}</t>
-  </si>
-  <si>
     <t>{{Total}}</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>{{ReportStoreStateChange.Details.StoreAddress}}</t>
   </si>
   <si>
-    <t>{{ReportStoreStateChange.Details.PhoneNumber}}</t>
-  </si>
-  <si>
     <t>{{ReportStoreStateChange.Details.StringPreviousCreatedAt}}</t>
   </si>
   <si>
@@ -111,6 +102,15 @@
   </si>
   <si>
     <t>{{ReportStoreStateChange.Details.PreviousStoreStatus}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreStateChange.StringCreatedAt}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreStateChange.Details.StorePhoneNumber}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreStateChange.Stt}}</t>
   </si>
 </sst>
 </file>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,36 +688,36 @@
         <v>11</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Report_Store_State_Change.xlsx
+++ b/DMS/Templates/Report_Store_State_Change.xlsx
@@ -104,13 +104,13 @@
     <t>{{ReportStoreStateChange.Details.PreviousStoreStatus}}</t>
   </si>
   <si>
-    <t>{{ReportStoreStateChange.StringCreatedAt}}</t>
-  </si>
-  <si>
     <t>{{ReportStoreStateChange.Details.StorePhoneNumber}}</t>
   </si>
   <si>
-    <t>{{ReportStoreStateChange.Stt}}</t>
+    <t>{{ReportStoreStateChange.Details.StringCreatedAt}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreStateChange.Details.Stt}}</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +588,7 @@
     <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
@@ -631,17 +631,16 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -696,7 +695,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
@@ -708,7 +707,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>25</v>
